--- a/results/mp/logistic/corona/confidence/126/stop-words-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,100 +49,82 @@
     <t>panic</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>save</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>care</t>
   </si>
   <si>
     <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -500,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,7 +490,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
         <v>21</v>
@@ -590,16 +572,16 @@
         <v>73</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -619,13 +601,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4391534391534391</v>
+        <v>0.455026455026455</v>
       </c>
       <c r="C4">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D4">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -637,19 +619,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4">
-        <v>0.9083333333333333</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L4">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="M4">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -661,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -669,13 +651,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3817829457364341</v>
+        <v>0.3391472868217054</v>
       </c>
       <c r="C5">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="D5">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -687,69 +669,45 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>0.875</v>
+      </c>
+      <c r="L5">
+        <v>105</v>
+      </c>
+      <c r="M5">
+        <v>105</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>15</v>
       </c>
-      <c r="K5">
-        <v>0.8813559322033898</v>
-      </c>
-      <c r="L5">
-        <v>52</v>
-      </c>
-      <c r="M5">
-        <v>52</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>7</v>
-      </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0.2080536912751678</v>
-      </c>
-      <c r="C6">
-        <v>31</v>
-      </c>
-      <c r="D6">
-        <v>31</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>118</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -761,21 +719,21 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7">
-        <v>0.8333333333333334</v>
+        <v>0.80625</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -787,21 +745,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8">
-        <v>0.8301886792452831</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L8">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="M8">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -813,21 +771,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>0.825065274151436</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L9">
-        <v>316</v>
+        <v>66</v>
       </c>
       <c r="M9">
-        <v>316</v>
+        <v>66</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -839,21 +797,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>0.8170731707317073</v>
+        <v>0.804177545691906</v>
       </c>
       <c r="L10">
-        <v>67</v>
+        <v>308</v>
       </c>
       <c r="M10">
-        <v>67</v>
+        <v>308</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -865,21 +823,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11">
-        <v>0.8103448275862069</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -891,21 +849,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K12">
-        <v>0.8055555555555556</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -917,21 +875,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K13">
-        <v>0.78125</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="M13">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -943,21 +901,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14">
-        <v>0.7708333333333334</v>
+        <v>0.7890625</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -969,21 +927,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K15">
-        <v>0.7605633802816901</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -995,21 +953,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K16">
-        <v>0.7575757575757576</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L16">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1021,21 +979,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K17">
-        <v>0.75625</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L17">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="M17">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1047,15 +1005,15 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K18">
-        <v>0.723404255319149</v>
+        <v>0.68</v>
       </c>
       <c r="L18">
         <v>34</v>
@@ -1073,21 +1031,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K19">
-        <v>0.7142857142857143</v>
+        <v>0.65</v>
       </c>
       <c r="L19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1099,21 +1057,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K20">
-        <v>0.6825396825396826</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L20">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="M20">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1125,21 +1083,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K21">
-        <v>0.675</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1151,21 +1109,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K22">
-        <v>0.66</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1177,21 +1135,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K23">
-        <v>0.6279069767441861</v>
+        <v>0.5815899581589958</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1203,47 +1161,47 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K24">
-        <v>0.6235294117647059</v>
+        <v>0.5510204081632653</v>
       </c>
       <c r="L24">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="M24">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="L25">
         <v>35</v>
       </c>
-      <c r="K25">
-        <v>0.5846153846153846</v>
-      </c>
-      <c r="L25">
-        <v>38</v>
-      </c>
       <c r="M25">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1255,21 +1213,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K26">
-        <v>0.5694915254237288</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L26">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="M26">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1281,163 +1239,33 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>127</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27">
+        <v>0.4714285714285714</v>
+      </c>
+      <c r="L27">
+        <v>33</v>
+      </c>
+      <c r="M27">
+        <v>33</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>37</v>
-      </c>
-      <c r="K27">
-        <v>0.5648535564853556</v>
-      </c>
-      <c r="L27">
-        <v>135</v>
-      </c>
-      <c r="M27">
-        <v>135</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="10:17">
-      <c r="J28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K28">
-        <v>0.5425531914893617</v>
-      </c>
-      <c r="L28">
-        <v>51</v>
-      </c>
-      <c r="M28">
-        <v>51</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="10:17">
-      <c r="J29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K29">
-        <v>0.5142857142857142</v>
-      </c>
-      <c r="L29">
-        <v>36</v>
-      </c>
-      <c r="M29">
-        <v>36</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="10:17">
-      <c r="J30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K30">
-        <v>0.4606741573033708</v>
-      </c>
-      <c r="L30">
-        <v>41</v>
-      </c>
-      <c r="M30">
-        <v>41</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="10:17">
-      <c r="J31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K31">
-        <v>0.3561643835616438</v>
-      </c>
-      <c r="L31">
-        <v>26</v>
-      </c>
-      <c r="M31">
-        <v>26</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="10:17">
-      <c r="J32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K32">
-        <v>0.3205128205128205</v>
-      </c>
-      <c r="L32">
-        <v>25</v>
-      </c>
-      <c r="M32">
-        <v>25</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
